--- a/ECFP4 Fingerprint/top_similarities_maccs_t.xlsx
+++ b/ECFP4 Fingerprint/top_similarities_maccs_t.xlsx
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[6420227, 89043, 442004, 122382587, 12315486]</t>
+          <t>[89043, 442004, 122382587, 12315486, 6441048]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.5370370370370371, 0.44776119402985076, 0.4430379746835443, 0.41818181818181815, 0.40350877192982454]</t>
+          <t>[0.44776119402985076, 0.4430379746835443, 0.41818181818181815, 0.40350877192982454, 0.39622641509433965]</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[89043, 608924, 621574, 6420227, 29732]</t>
+          <t>[89043, 608924, 621574, 29732, 30600429]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.47692307692307695, 0.3898305084745763, 0.38461538461538464, 0.36666666666666664, 0.3611111111111111]</t>
+          <t>[0.47692307692307695, 0.3898305084745763, 0.38461538461538464, 0.3611111111111111, 0.35384615384615387]</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[79730, 660, 253955, 44583637, 2116]</t>
+          <t>[79730, 660, 253955, 44583637, 72344]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[0.5757575757575758, 0.5666666666666667, 0.5588235294117647, 0.5454545454545454, 0.5384615384615384]</t>
+          <t>[0.5757575757575758, 0.5666666666666667, 0.5588235294117647, 0.5454545454545454, 0.5277777777777778]</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[44537526, 636934, 101306752, 15558574, 101618772]</t>
+          <t>[15558574, 8969, 92766, 643606, 120716]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[0.6785714285714286, 0.6607142857142857, 0.6428571428571429, 0.625, 0.6166666666666667]</t>
+          <t>[0.625, 0.6031746031746031, 0.6031746031746031, 0.6031746031746031, 0.6031746031746031]</t>
         </is>
       </c>
     </row>
